--- a/data/TestingPosByAge.xlsx
+++ b/data/TestingPosByAge.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\COVID-19 Data Visualization\COVID19 - Files\Power BI resources\CSV filesPROB4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A0E8A2A-70B7-45C6-AB10-68204A2EA7FC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A9A4A2E-1E17-46F5-8E32-352431D7861E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{DBB38BDF-A13F-419E-9516-D831F5BF310A}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{DBB38BDF-A13F-419E-9516-D831F5BF310A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -416,20 +416,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0FDBA33-3CDD-4A6B-A0DB-E219F4323B76}">
-  <dimension ref="A1:J40"/>
+  <dimension ref="A1:J42"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C51" sqref="C51"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C46" sqref="C46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.7265625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.77734375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12" customWidth="1"/>
-    <col min="3" max="8" width="10.81640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="8" width="10.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -461,7 +461,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>43891</v>
       </c>
@@ -493,7 +493,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>43898</v>
       </c>
@@ -525,7 +525,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>43905</v>
       </c>
@@ -557,7 +557,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>43912</v>
       </c>
@@ -589,7 +589,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>43919</v>
       </c>
@@ -606,7 +606,7 @@
         <v>0.14749999999999999</v>
       </c>
       <c r="F6">
-        <v>0.18429999999999999</v>
+        <v>0.18440000000000001</v>
       </c>
       <c r="G6">
         <v>0.1421</v>
@@ -615,13 +615,13 @@
         <v>0.10529999999999999</v>
       </c>
       <c r="I6">
-        <v>0.1515</v>
+        <v>0.15140000000000001</v>
       </c>
       <c r="J6">
         <v>1E-3</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>43926</v>
       </c>
@@ -653,7 +653,7 @@
         <v>8.0000000000000004E-4</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>43933</v>
       </c>
@@ -661,7 +661,7 @@
         <v>2.69E-2</v>
       </c>
       <c r="C8">
-        <v>0.1084</v>
+        <v>0.10830000000000001</v>
       </c>
       <c r="D8">
         <v>0.13419999999999999</v>
@@ -685,7 +685,7 @@
         <v>7.4999999999999997E-3</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>43940</v>
       </c>
@@ -702,13 +702,13 @@
         <v>0.14130000000000001</v>
       </c>
       <c r="F9">
-        <v>0.1547</v>
+        <v>0.15479999999999999</v>
       </c>
       <c r="G9">
         <v>0.13439999999999999</v>
       </c>
       <c r="H9">
-        <v>9.9700000000000011E-2</v>
+        <v>9.98E-2</v>
       </c>
       <c r="I9">
         <v>0.16159999999999999</v>
@@ -717,7 +717,7 @@
         <v>4.0000000000000002E-4</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>43947</v>
       </c>
@@ -749,7 +749,7 @@
         <v>5.0000000000000001E-4</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>43954</v>
       </c>
@@ -760,13 +760,13 @@
         <v>0.1429</v>
       </c>
       <c r="D11">
-        <v>0.1598</v>
+        <v>0.15970000000000001</v>
       </c>
       <c r="E11">
         <v>0.14510000000000001</v>
       </c>
       <c r="F11">
-        <v>0.14419999999999999</v>
+        <v>0.14429999999999998</v>
       </c>
       <c r="G11">
         <v>0.13200000000000001</v>
@@ -781,7 +781,7 @@
         <v>7.000000000000001E-4</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>43961</v>
       </c>
@@ -798,7 +798,7 @@
         <v>0.14730000000000001</v>
       </c>
       <c r="F12">
-        <v>0.1555</v>
+        <v>0.15560000000000002</v>
       </c>
       <c r="G12">
         <v>0.12740000000000001</v>
@@ -807,18 +807,18 @@
         <v>8.3299999999999999E-2</v>
       </c>
       <c r="I12">
-        <v>0.1231</v>
+        <v>0.1232</v>
       </c>
       <c r="J12">
         <v>2.3E-3</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>43968</v>
       </c>
       <c r="B13">
-        <v>8.0199999999999994E-2</v>
+        <v>8.0299999999999996E-2</v>
       </c>
       <c r="C13">
         <v>0.14899999999999999</v>
@@ -836,7 +836,7 @@
         <v>0.1211</v>
       </c>
       <c r="H13">
-        <v>8.2500000000000004E-2</v>
+        <v>8.2400000000000001E-2</v>
       </c>
       <c r="I13">
         <v>0.1207</v>
@@ -845,7 +845,7 @@
         <v>5.9999999999999995E-4</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>43975</v>
       </c>
@@ -853,7 +853,7 @@
         <v>7.8E-2</v>
       </c>
       <c r="C14">
-        <v>0.14849999999999999</v>
+        <v>0.14859999999999998</v>
       </c>
       <c r="D14">
         <v>0.15060000000000001</v>
@@ -865,7 +865,7 @@
         <v>0.14980000000000002</v>
       </c>
       <c r="G14">
-        <v>0.12809999999999999</v>
+        <v>0.128</v>
       </c>
       <c r="H14">
         <v>9.1799999999999993E-2</v>
@@ -877,7 +877,7 @@
         <v>5.9999999999999995E-4</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>43982</v>
       </c>
@@ -909,7 +909,7 @@
         <v>2.0000000000000001E-4</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>43989</v>
       </c>
@@ -941,7 +941,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>43996</v>
       </c>
@@ -973,7 +973,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>44003</v>
       </c>
@@ -1005,7 +1005,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>44010</v>
       </c>
@@ -1037,7 +1037,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>44017</v>
       </c>
@@ -1069,7 +1069,7 @@
         <v>5.0000000000000001E-4</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>44024</v>
       </c>
@@ -1101,7 +1101,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>44031</v>
       </c>
@@ -1133,7 +1133,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>44038</v>
       </c>
@@ -1141,19 +1141,19 @@
         <v>0.1409</v>
       </c>
       <c r="C23">
-        <v>0.2286</v>
+        <v>0.22889999999999999</v>
       </c>
       <c r="D23">
-        <v>0.19879999999999998</v>
+        <v>0.19870000000000002</v>
       </c>
       <c r="E23">
         <v>0.12809999999999999</v>
       </c>
       <c r="F23">
-        <v>0.13239999999999999</v>
+        <v>0.1323</v>
       </c>
       <c r="G23">
-        <v>7.4099999999999999E-2</v>
+        <v>7.400000000000001E-2</v>
       </c>
       <c r="H23">
         <v>5.4900000000000004E-2</v>
@@ -1165,27 +1165,27 @@
         <v>4.0000000000000002E-4</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>44045</v>
       </c>
       <c r="B24">
-        <v>0.16289999999999999</v>
+        <v>0.16300000000000001</v>
       </c>
       <c r="C24">
         <v>0.21600000000000003</v>
       </c>
       <c r="D24">
-        <v>0.17460000000000001</v>
+        <v>0.17469999999999999</v>
       </c>
       <c r="E24">
-        <v>0.14199999999999999</v>
+        <v>0.1421</v>
       </c>
       <c r="F24">
         <v>0.1358</v>
       </c>
       <c r="G24">
-        <v>8.5600000000000009E-2</v>
+        <v>8.5199999999999998E-2</v>
       </c>
       <c r="H24">
         <v>4.7599999999999996E-2</v>
@@ -1197,7 +1197,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>44052</v>
       </c>
@@ -1229,7 +1229,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>44059</v>
       </c>
@@ -1246,10 +1246,10 @@
         <v>0.14269999999999999</v>
       </c>
       <c r="F26">
-        <v>0.12859999999999999</v>
+        <v>0.12820000000000001</v>
       </c>
       <c r="G26">
-        <v>7.9299999999999995E-2</v>
+        <v>7.9699999999999993E-2</v>
       </c>
       <c r="H26">
         <v>5.1799999999999999E-2</v>
@@ -1261,7 +1261,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>44066</v>
       </c>
@@ -1293,7 +1293,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>44073</v>
       </c>
@@ -1325,7 +1325,7 @@
         <v>7.000000000000001E-4</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>44080</v>
       </c>
@@ -1333,13 +1333,13 @@
         <v>0.17249999999999999</v>
       </c>
       <c r="C29">
-        <v>0.2427</v>
+        <v>0.24280000000000002</v>
       </c>
       <c r="D29">
-        <v>0.18410000000000001</v>
+        <v>0.18379999999999999</v>
       </c>
       <c r="E29">
-        <v>0.1394</v>
+        <v>0.13949999999999999</v>
       </c>
       <c r="F29">
         <v>0.12050000000000001</v>
@@ -1357,27 +1357,27 @@
         <v>7.000000000000001E-4</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>44087</v>
       </c>
       <c r="B30">
-        <v>0.15640000000000001</v>
+        <v>0.15629999999999999</v>
       </c>
       <c r="C30">
-        <v>0.2263</v>
+        <v>0.2268</v>
       </c>
       <c r="D30">
-        <v>0.16670000000000001</v>
+        <v>0.1666</v>
       </c>
       <c r="E30">
-        <v>0.15130000000000002</v>
+        <v>0.1512</v>
       </c>
       <c r="F30">
-        <v>0.1343</v>
+        <v>0.13419999999999999</v>
       </c>
       <c r="G30">
-        <v>8.8499999999999995E-2</v>
+        <v>8.8399999999999992E-2</v>
       </c>
       <c r="H30">
         <v>4.0399999999999998E-2</v>
@@ -1389,15 +1389,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>44094</v>
       </c>
       <c r="B31">
-        <v>0.20030000000000001</v>
+        <v>0.20010000000000003</v>
       </c>
       <c r="C31">
-        <v>0.23199999999999998</v>
+        <v>0.2321</v>
       </c>
       <c r="D31">
         <v>0.1673</v>
@@ -1406,7 +1406,7 @@
         <v>0.12240000000000001</v>
       </c>
       <c r="F31">
-        <v>0.1226</v>
+        <v>0.12269999999999999</v>
       </c>
       <c r="G31">
         <v>8.0600000000000005E-2</v>
@@ -1421,7 +1421,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>44101</v>
       </c>
@@ -1432,13 +1432,13 @@
         <v>0.21309999999999998</v>
       </c>
       <c r="D32">
-        <v>0.1711</v>
+        <v>0.1709</v>
       </c>
       <c r="E32">
         <v>0.13970000000000002</v>
       </c>
       <c r="F32">
-        <v>0.126</v>
+        <v>0.12619999999999998</v>
       </c>
       <c r="G32">
         <v>8.1900000000000001E-2</v>
@@ -1453,7 +1453,7 @@
         <v>4.0000000000000002E-4</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>44108</v>
       </c>
@@ -1485,12 +1485,12 @@
         <v>5.9999999999999995E-4</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <v>44115</v>
       </c>
       <c r="B34">
-        <v>0.19769999999999999</v>
+        <v>0.1978</v>
       </c>
       <c r="C34">
         <v>0.18179999999999999</v>
@@ -1502,10 +1502,10 @@
         <v>0.1363</v>
       </c>
       <c r="F34">
-        <v>0.1394</v>
+        <v>0.13949999999999999</v>
       </c>
       <c r="G34">
-        <v>9.0999999999999998E-2</v>
+        <v>9.0899999999999995E-2</v>
       </c>
       <c r="H34">
         <v>4.3799999999999999E-2</v>
@@ -1517,12 +1517,12 @@
         <v>5.0000000000000001E-4</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <v>44122</v>
       </c>
       <c r="B35">
-        <v>0.18530000000000002</v>
+        <v>0.18539999999999998</v>
       </c>
       <c r="C35">
         <v>0.1789</v>
@@ -1531,7 +1531,7 @@
         <v>0.17920000000000003</v>
       </c>
       <c r="E35">
-        <v>0.15039999999999998</v>
+        <v>0.15049999999999999</v>
       </c>
       <c r="F35">
         <v>0.13059999999999999</v>
@@ -1546,10 +1546,10 @@
         <v>3.49E-2</v>
       </c>
       <c r="J35">
-        <v>4.0000000000000002E-4</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.35">
+        <v>1E-4</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
         <v>44129</v>
       </c>
@@ -1557,7 +1557,7 @@
         <v>0.17629999999999998</v>
       </c>
       <c r="C36">
-        <v>0.1865</v>
+        <v>0.18640000000000001</v>
       </c>
       <c r="D36">
         <v>0.17960000000000001</v>
@@ -1566,13 +1566,13 @@
         <v>0.1497</v>
       </c>
       <c r="F36">
-        <v>0.13900000000000001</v>
+        <v>0.1389</v>
       </c>
       <c r="G36">
         <v>9.2200000000000004E-2</v>
       </c>
       <c r="H36">
-        <v>4.7100000000000003E-2</v>
+        <v>4.7199999999999999E-2</v>
       </c>
       <c r="I36">
         <v>2.9700000000000001E-2</v>
@@ -1581,47 +1581,47 @@
         <v>1E-4</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
         <v>44136</v>
       </c>
       <c r="B37">
-        <v>0.16769999999999999</v>
+        <v>0.16789999999999999</v>
       </c>
       <c r="C37">
-        <v>0.22320000000000001</v>
+        <v>0.223</v>
       </c>
       <c r="D37">
-        <v>0.1668</v>
+        <v>0.16690000000000002</v>
       </c>
       <c r="E37">
-        <v>0.1449</v>
+        <v>0.1447</v>
       </c>
       <c r="F37">
         <v>0.1346</v>
       </c>
       <c r="G37">
-        <v>8.8599999999999998E-2</v>
+        <v>8.8699999999999987E-2</v>
       </c>
       <c r="H37">
         <v>4.2099999999999999E-2</v>
       </c>
       <c r="I37">
-        <v>3.1899999999999998E-2</v>
+        <v>3.2000000000000001E-2</v>
       </c>
       <c r="J37">
         <v>1E-4</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
         <v>44143</v>
       </c>
       <c r="B38">
-        <v>0.16879999999999998</v>
+        <v>0.16870000000000002</v>
       </c>
       <c r="C38">
-        <v>0.20920000000000002</v>
+        <v>0.20929999999999999</v>
       </c>
       <c r="D38">
         <v>0.17120000000000002</v>
@@ -1630,36 +1630,36 @@
         <v>0.14319999999999999</v>
       </c>
       <c r="F38">
-        <v>0.14050000000000001</v>
+        <v>0.1406</v>
       </c>
       <c r="G38">
         <v>9.1199999999999989E-2</v>
       </c>
       <c r="H38">
-        <v>4.2699999999999995E-2</v>
+        <v>4.2800000000000005E-2</v>
       </c>
       <c r="I38">
-        <v>3.2500000000000001E-2</v>
+        <v>3.2599999999999997E-2</v>
       </c>
       <c r="J38">
         <v>5.0000000000000001E-4</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
         <v>44150</v>
       </c>
       <c r="B39">
-        <v>0.16820000000000002</v>
+        <v>0.16829999999999998</v>
       </c>
       <c r="C39">
         <v>0.2072</v>
       </c>
       <c r="D39">
-        <v>0.16550000000000001</v>
+        <v>0.16589999999999999</v>
       </c>
       <c r="E39">
-        <v>0.13390000000000002</v>
+        <v>0.1338</v>
       </c>
       <c r="F39">
         <v>0.14249999999999999</v>
@@ -1668,45 +1668,109 @@
         <v>9.6199999999999994E-2</v>
       </c>
       <c r="H39">
-        <v>4.9500000000000002E-2</v>
+        <v>4.9400000000000006E-2</v>
       </c>
       <c r="I39">
-        <v>3.5200000000000002E-2</v>
+        <v>3.5099999999999999E-2</v>
       </c>
       <c r="J39">
-        <v>1.8E-3</v>
-      </c>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.35">
+        <v>1.7000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
         <v>44157</v>
       </c>
       <c r="B40">
-        <v>0.1585</v>
+        <v>0.15839999999999999</v>
       </c>
       <c r="C40">
-        <v>0.19039999999999999</v>
+        <v>0.19260000000000002</v>
       </c>
       <c r="D40">
-        <v>0.1623</v>
+        <v>0.16309999999999999</v>
       </c>
       <c r="E40">
-        <v>0.13980000000000001</v>
+        <v>0.14019999999999999</v>
       </c>
       <c r="F40">
-        <v>0.14899999999999999</v>
+        <v>0.1492</v>
       </c>
       <c r="G40">
-        <v>9.98E-2</v>
+        <v>9.9399999999999988E-2</v>
       </c>
       <c r="H40">
-        <v>5.6900000000000006E-2</v>
+        <v>5.5500000000000001E-2</v>
       </c>
       <c r="I40">
-        <v>4.3200000000000002E-2</v>
+        <v>4.1500000000000002E-2</v>
       </c>
       <c r="J40">
         <v>1E-4</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A41" s="1">
+        <v>44164</v>
+      </c>
+      <c r="B41">
+        <v>0.1653</v>
+      </c>
+      <c r="C41">
+        <v>0.20430000000000001</v>
+      </c>
+      <c r="D41">
+        <v>0.16820000000000002</v>
+      </c>
+      <c r="E41">
+        <v>0.14069999999999999</v>
+      </c>
+      <c r="F41">
+        <v>0.1469</v>
+      </c>
+      <c r="G41">
+        <v>9.5500000000000002E-2</v>
+      </c>
+      <c r="H41">
+        <v>4.5599999999999995E-2</v>
+      </c>
+      <c r="I41">
+        <v>3.3399999999999999E-2</v>
+      </c>
+      <c r="J41">
+        <v>2.0000000000000001E-4</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A42" s="1">
+        <v>44141</v>
+      </c>
+      <c r="B42">
+        <v>0.1532</v>
+      </c>
+      <c r="C42">
+        <v>0.20019999999999999</v>
+      </c>
+      <c r="D42">
+        <v>0.17059999999999997</v>
+      </c>
+      <c r="E42">
+        <v>0.13930000000000001</v>
+      </c>
+      <c r="F42">
+        <v>0.1474</v>
+      </c>
+      <c r="G42">
+        <v>9.7500000000000003E-2</v>
+      </c>
+      <c r="H42">
+        <v>5.16E-2</v>
+      </c>
+      <c r="I42">
+        <v>4.0199999999999993E-2</v>
+      </c>
+      <c r="J42">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/data/TestingPosByAge.xlsx
+++ b/data/TestingPosByAge.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\COVID-19 Data Visualization\COVID19 - Files\Power BI resources\CSV filesPROB4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A9A4A2E-1E17-46F5-8E32-352431D7861E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB01A5D5-C9C7-4C51-B0AC-7E79054ADD44}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{DBB38BDF-A13F-419E-9516-D831F5BF310A}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{DBB38BDF-A13F-419E-9516-D831F5BF310A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -416,10 +416,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0FDBA33-3CDD-4A6B-A0DB-E219F4323B76}">
-  <dimension ref="A1:J42"/>
+  <dimension ref="A1:J43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C46" sqref="C46"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N15" sqref="N15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -702,16 +702,16 @@
         <v>0.14130000000000001</v>
       </c>
       <c r="F9">
-        <v>0.15479999999999999</v>
+        <v>0.1547</v>
       </c>
       <c r="G9">
         <v>0.13439999999999999</v>
       </c>
       <c r="H9">
-        <v>9.98E-2</v>
+        <v>9.9700000000000011E-2</v>
       </c>
       <c r="I9">
-        <v>0.16159999999999999</v>
+        <v>0.16170000000000001</v>
       </c>
       <c r="J9">
         <v>4.0000000000000002E-4</v>
@@ -798,7 +798,7 @@
         <v>0.14730000000000001</v>
       </c>
       <c r="F12">
-        <v>0.15560000000000002</v>
+        <v>0.1555</v>
       </c>
       <c r="G12">
         <v>0.12740000000000001</v>
@@ -830,13 +830,13 @@
         <v>0.13769999999999999</v>
       </c>
       <c r="F13">
-        <v>0.15859999999999999</v>
+        <v>0.1585</v>
       </c>
       <c r="G13">
         <v>0.1211</v>
       </c>
       <c r="H13">
-        <v>8.2400000000000001E-2</v>
+        <v>8.2500000000000004E-2</v>
       </c>
       <c r="I13">
         <v>0.1207</v>
@@ -853,7 +853,7 @@
         <v>7.8E-2</v>
       </c>
       <c r="C14">
-        <v>0.14859999999999998</v>
+        <v>0.14849999999999999</v>
       </c>
       <c r="D14">
         <v>0.15060000000000001</v>
@@ -865,7 +865,7 @@
         <v>0.14980000000000002</v>
       </c>
       <c r="G14">
-        <v>0.128</v>
+        <v>0.12809999999999999</v>
       </c>
       <c r="H14">
         <v>9.1799999999999993E-2</v>
@@ -894,10 +894,10 @@
         <v>0.13900000000000001</v>
       </c>
       <c r="F15">
-        <v>0.14990000000000001</v>
+        <v>0.1497</v>
       </c>
       <c r="G15">
-        <v>0.12869999999999998</v>
+        <v>0.1288</v>
       </c>
       <c r="H15">
         <v>9.01E-2</v>
@@ -1042,22 +1042,22 @@
         <v>44017</v>
       </c>
       <c r="B20">
-        <v>0.1192</v>
+        <v>0.1193</v>
       </c>
       <c r="C20">
-        <v>0.24309999999999998</v>
+        <v>0.2432</v>
       </c>
       <c r="D20">
-        <v>0.15659999999999999</v>
+        <v>0.15670000000000001</v>
       </c>
       <c r="E20">
-        <v>0.14019999999999999</v>
+        <v>0.14029999999999998</v>
       </c>
       <c r="F20">
-        <v>0.1356</v>
+        <v>0.13519999999999999</v>
       </c>
       <c r="G20">
-        <v>9.6199999999999994E-2</v>
+        <v>9.6300000000000011E-2</v>
       </c>
       <c r="H20">
         <v>5.6799999999999996E-2</v>
@@ -1170,22 +1170,22 @@
         <v>44045</v>
       </c>
       <c r="B24">
-        <v>0.16300000000000001</v>
+        <v>0.16289999999999999</v>
       </c>
       <c r="C24">
         <v>0.21600000000000003</v>
       </c>
       <c r="D24">
-        <v>0.17469999999999999</v>
+        <v>0.17460000000000001</v>
       </c>
       <c r="E24">
-        <v>0.1421</v>
+        <v>0.14199999999999999</v>
       </c>
       <c r="F24">
         <v>0.1358</v>
       </c>
       <c r="G24">
-        <v>8.5199999999999998E-2</v>
+        <v>8.5600000000000009E-2</v>
       </c>
       <c r="H24">
         <v>4.7599999999999996E-2</v>
@@ -1266,19 +1266,19 @@
         <v>44066</v>
       </c>
       <c r="B27">
-        <v>0.1482</v>
+        <v>0.14829999999999999</v>
       </c>
       <c r="C27">
-        <v>0.22800000000000001</v>
+        <v>0.2281</v>
       </c>
       <c r="D27">
-        <v>0.19339999999999999</v>
+        <v>0.19350000000000001</v>
       </c>
       <c r="E27">
-        <v>0.1358</v>
+        <v>0.13589999999999999</v>
       </c>
       <c r="F27">
-        <v>0.14300000000000002</v>
+        <v>0.1426</v>
       </c>
       <c r="G27">
         <v>8.5800000000000001E-2</v>
@@ -1298,10 +1298,10 @@
         <v>44073</v>
       </c>
       <c r="B28">
-        <v>0.1794</v>
+        <v>0.17910000000000001</v>
       </c>
       <c r="C28">
-        <v>0.2303</v>
+        <v>0.23070000000000002</v>
       </c>
       <c r="D28">
         <v>0.1784</v>
@@ -1333,13 +1333,13 @@
         <v>0.17249999999999999</v>
       </c>
       <c r="C29">
-        <v>0.24280000000000002</v>
+        <v>0.2427</v>
       </c>
       <c r="D29">
-        <v>0.18379999999999999</v>
+        <v>0.18410000000000001</v>
       </c>
       <c r="E29">
-        <v>0.13949999999999999</v>
+        <v>0.1394</v>
       </c>
       <c r="F29">
         <v>0.12050000000000001</v>
@@ -1365,13 +1365,13 @@
         <v>0.15629999999999999</v>
       </c>
       <c r="C30">
-        <v>0.2268</v>
+        <v>0.22699999999999998</v>
       </c>
       <c r="D30">
-        <v>0.1666</v>
+        <v>0.16649999999999998</v>
       </c>
       <c r="E30">
-        <v>0.1512</v>
+        <v>0.15109999999999998</v>
       </c>
       <c r="F30">
         <v>0.13419999999999999</v>
@@ -1380,7 +1380,7 @@
         <v>8.8399999999999992E-2</v>
       </c>
       <c r="H30">
-        <v>4.0399999999999998E-2</v>
+        <v>4.0300000000000002E-2</v>
       </c>
       <c r="I30">
         <v>3.6200000000000003E-2</v>
@@ -1397,16 +1397,16 @@
         <v>0.20010000000000003</v>
       </c>
       <c r="C31">
-        <v>0.2321</v>
+        <v>0.23199999999999998</v>
       </c>
       <c r="D31">
-        <v>0.1673</v>
+        <v>0.16750000000000001</v>
       </c>
       <c r="E31">
         <v>0.12240000000000001</v>
       </c>
       <c r="F31">
-        <v>0.12269999999999999</v>
+        <v>0.1226</v>
       </c>
       <c r="G31">
         <v>8.0600000000000005E-2</v>
@@ -1426,10 +1426,10 @@
         <v>44101</v>
       </c>
       <c r="B32">
-        <v>0.19649999999999998</v>
+        <v>0.19640000000000002</v>
       </c>
       <c r="C32">
-        <v>0.21309999999999998</v>
+        <v>0.21329999999999999</v>
       </c>
       <c r="D32">
         <v>0.1709</v>
@@ -1461,16 +1461,16 @@
         <v>0.17879999999999999</v>
       </c>
       <c r="C33">
-        <v>0.2011</v>
+        <v>0.2009</v>
       </c>
       <c r="D33">
-        <v>0.16879999999999998</v>
+        <v>0.16899999999999998</v>
       </c>
       <c r="E33">
-        <v>0.14730000000000001</v>
+        <v>0.14710000000000001</v>
       </c>
       <c r="F33">
-        <v>0.1421</v>
+        <v>0.14249999999999999</v>
       </c>
       <c r="G33">
         <v>8.1799999999999998E-2</v>
@@ -1490,22 +1490,22 @@
         <v>44115</v>
       </c>
       <c r="B34">
-        <v>0.1978</v>
+        <v>0.19769999999999999</v>
       </c>
       <c r="C34">
-        <v>0.18179999999999999</v>
+        <v>0.18140000000000001</v>
       </c>
       <c r="D34">
-        <v>0.17120000000000002</v>
+        <v>0.1716</v>
       </c>
       <c r="E34">
         <v>0.1363</v>
       </c>
       <c r="F34">
-        <v>0.13949999999999999</v>
+        <v>0.1394</v>
       </c>
       <c r="G34">
-        <v>9.0899999999999995E-2</v>
+        <v>9.0999999999999998E-2</v>
       </c>
       <c r="H34">
         <v>4.3799999999999999E-2</v>
@@ -1522,16 +1522,16 @@
         <v>44122</v>
       </c>
       <c r="B35">
-        <v>0.18539999999999998</v>
+        <v>0.1852</v>
       </c>
       <c r="C35">
-        <v>0.1789</v>
+        <v>0.17920000000000003</v>
       </c>
       <c r="D35">
-        <v>0.17920000000000003</v>
+        <v>0.17910000000000001</v>
       </c>
       <c r="E35">
-        <v>0.15049999999999999</v>
+        <v>0.15060000000000001</v>
       </c>
       <c r="F35">
         <v>0.13059999999999999</v>
@@ -1554,16 +1554,16 @@
         <v>44129</v>
       </c>
       <c r="B36">
-        <v>0.17629999999999998</v>
+        <v>0.17600000000000002</v>
       </c>
       <c r="C36">
-        <v>0.18640000000000001</v>
+        <v>0.18679999999999999</v>
       </c>
       <c r="D36">
         <v>0.17960000000000001</v>
       </c>
       <c r="E36">
-        <v>0.1497</v>
+        <v>0.14949999999999999</v>
       </c>
       <c r="F36">
         <v>0.1389</v>
@@ -1586,25 +1586,25 @@
         <v>44136</v>
       </c>
       <c r="B37">
-        <v>0.16789999999999999</v>
+        <v>0.16769999999999999</v>
       </c>
       <c r="C37">
-        <v>0.223</v>
+        <v>0.22320000000000001</v>
       </c>
       <c r="D37">
-        <v>0.16690000000000002</v>
+        <v>0.1668</v>
       </c>
       <c r="E37">
         <v>0.1447</v>
       </c>
       <c r="F37">
-        <v>0.1346</v>
+        <v>0.13449999999999998</v>
       </c>
       <c r="G37">
-        <v>8.8699999999999987E-2</v>
+        <v>8.8800000000000004E-2</v>
       </c>
       <c r="H37">
-        <v>4.2099999999999999E-2</v>
+        <v>4.2199999999999994E-2</v>
       </c>
       <c r="I37">
         <v>3.2000000000000001E-2</v>
@@ -1618,13 +1618,13 @@
         <v>44143</v>
       </c>
       <c r="B38">
-        <v>0.16870000000000002</v>
+        <v>0.1686</v>
       </c>
       <c r="C38">
-        <v>0.20929999999999999</v>
+        <v>0.2094</v>
       </c>
       <c r="D38">
-        <v>0.17120000000000002</v>
+        <v>0.1711</v>
       </c>
       <c r="E38">
         <v>0.14319999999999999</v>
@@ -1633,13 +1633,13 @@
         <v>0.1406</v>
       </c>
       <c r="G38">
-        <v>9.1199999999999989E-2</v>
+        <v>9.1300000000000006E-2</v>
       </c>
       <c r="H38">
         <v>4.2800000000000005E-2</v>
       </c>
       <c r="I38">
-        <v>3.2599999999999997E-2</v>
+        <v>3.2500000000000001E-2</v>
       </c>
       <c r="J38">
         <v>5.0000000000000001E-4</v>
@@ -1650,28 +1650,28 @@
         <v>44150</v>
       </c>
       <c r="B39">
-        <v>0.16829999999999998</v>
+        <v>0.16850000000000001</v>
       </c>
       <c r="C39">
-        <v>0.2072</v>
+        <v>0.20710000000000001</v>
       </c>
       <c r="D39">
-        <v>0.16589999999999999</v>
+        <v>0.16570000000000001</v>
       </c>
       <c r="E39">
-        <v>0.1338</v>
+        <v>0.13390000000000002</v>
       </c>
       <c r="F39">
-        <v>0.14249999999999999</v>
+        <v>0.14230000000000001</v>
       </c>
       <c r="G39">
-        <v>9.6199999999999994E-2</v>
+        <v>9.6500000000000002E-2</v>
       </c>
       <c r="H39">
-        <v>4.9400000000000006E-2</v>
+        <v>4.9299999999999997E-2</v>
       </c>
       <c r="I39">
-        <v>3.5099999999999999E-2</v>
+        <v>3.5000000000000003E-2</v>
       </c>
       <c r="J39">
         <v>1.7000000000000001E-3</v>
@@ -1682,28 +1682,28 @@
         <v>44157</v>
       </c>
       <c r="B40">
-        <v>0.15839999999999999</v>
+        <v>0.15820000000000001</v>
       </c>
       <c r="C40">
         <v>0.19260000000000002</v>
       </c>
       <c r="D40">
-        <v>0.16309999999999999</v>
+        <v>0.16300000000000001</v>
       </c>
       <c r="E40">
-        <v>0.14019999999999999</v>
+        <v>0.14029999999999998</v>
       </c>
       <c r="F40">
-        <v>0.1492</v>
+        <v>0.14899999999999999</v>
       </c>
       <c r="G40">
-        <v>9.9399999999999988E-2</v>
+        <v>9.9600000000000008E-2</v>
       </c>
       <c r="H40">
-        <v>5.5500000000000001E-2</v>
+        <v>5.5599999999999997E-2</v>
       </c>
       <c r="I40">
-        <v>4.1500000000000002E-2</v>
+        <v>4.1599999999999998E-2</v>
       </c>
       <c r="J40">
         <v>1E-4</v>
@@ -1714,22 +1714,22 @@
         <v>44164</v>
       </c>
       <c r="B41">
-        <v>0.1653</v>
+        <v>0.16719999999999999</v>
       </c>
       <c r="C41">
-        <v>0.20430000000000001</v>
+        <v>0.20319999999999999</v>
       </c>
       <c r="D41">
-        <v>0.16820000000000002</v>
+        <v>0.16739999999999999</v>
       </c>
       <c r="E41">
-        <v>0.14069999999999999</v>
+        <v>0.14080000000000001</v>
       </c>
       <c r="F41">
         <v>0.1469</v>
       </c>
       <c r="G41">
-        <v>9.5500000000000002E-2</v>
+        <v>9.5100000000000004E-2</v>
       </c>
       <c r="H41">
         <v>4.5599999999999995E-2</v>
@@ -1738,38 +1738,70 @@
         <v>3.3399999999999999E-2</v>
       </c>
       <c r="J41">
-        <v>2.0000000000000001E-4</v>
+        <v>2.9999999999999997E-4</v>
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
-        <v>44141</v>
+        <v>44171</v>
       </c>
       <c r="B42">
-        <v>0.1532</v>
+        <v>0.16920000000000002</v>
       </c>
       <c r="C42">
-        <v>0.20019999999999999</v>
+        <v>0.19210000000000002</v>
       </c>
       <c r="D42">
-        <v>0.17059999999999997</v>
+        <v>0.1593</v>
       </c>
       <c r="E42">
-        <v>0.13930000000000001</v>
+        <v>0.13949999999999999</v>
       </c>
       <c r="F42">
-        <v>0.1474</v>
+        <v>0.14800000000000002</v>
       </c>
       <c r="G42">
-        <v>9.7500000000000003E-2</v>
+        <v>0.10150000000000001</v>
       </c>
       <c r="H42">
-        <v>5.16E-2</v>
+        <v>5.04E-2</v>
       </c>
       <c r="I42">
-        <v>4.0199999999999993E-2</v>
+        <v>3.9900000000000005E-2</v>
       </c>
       <c r="J42">
+        <v>1E-4</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A43" s="1">
+        <v>44178</v>
+      </c>
+      <c r="B43">
+        <v>0.16739999999999999</v>
+      </c>
+      <c r="C43">
+        <v>0.18100000000000002</v>
+      </c>
+      <c r="D43">
+        <v>0.161</v>
+      </c>
+      <c r="E43">
+        <v>0.13689999999999999</v>
+      </c>
+      <c r="F43">
+        <v>0.14180000000000001</v>
+      </c>
+      <c r="G43">
+        <v>0.1038</v>
+      </c>
+      <c r="H43">
+        <v>6.0499999999999998E-2</v>
+      </c>
+      <c r="I43">
+        <v>4.7599999999999996E-2</v>
+      </c>
+      <c r="J43">
         <v>0</v>
       </c>
     </row>

--- a/data/TestingPosByAge.xlsx
+++ b/data/TestingPosByAge.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\COVID-19 Data Visualization\COVID19 - Files\Power BI resources\CSV filesPROB4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB01A5D5-C9C7-4C51-B0AC-7E79054ADD44}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76269A77-B7A6-4010-B2BD-77F32FB9213C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{DBB38BDF-A13F-419E-9516-D831F5BF310A}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{DBB38BDF-A13F-419E-9516-D831F5BF310A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -416,10 +416,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0FDBA33-3CDD-4A6B-A0DB-E219F4323B76}">
-  <dimension ref="A1:J43"/>
+  <dimension ref="A1:J44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N15" sqref="N15"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L2" sqref="L2:U44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -705,10 +705,10 @@
         <v>0.1547</v>
       </c>
       <c r="G9">
-        <v>0.13439999999999999</v>
+        <v>0.13449999999999998</v>
       </c>
       <c r="H9">
-        <v>9.9700000000000011E-2</v>
+        <v>9.98E-2</v>
       </c>
       <c r="I9">
         <v>0.16170000000000001</v>
@@ -766,7 +766,7 @@
         <v>0.14510000000000001</v>
       </c>
       <c r="F11">
-        <v>0.14429999999999998</v>
+        <v>0.14419999999999999</v>
       </c>
       <c r="G11">
         <v>0.13200000000000001</v>
@@ -786,7 +786,7 @@
         <v>43961</v>
       </c>
       <c r="B12">
-        <v>6.1699999999999998E-2</v>
+        <v>6.1600000000000002E-2</v>
       </c>
       <c r="C12">
         <v>0.14929999999999999</v>
@@ -830,10 +830,10 @@
         <v>0.13769999999999999</v>
       </c>
       <c r="F13">
-        <v>0.1585</v>
+        <v>0.15839999999999999</v>
       </c>
       <c r="G13">
-        <v>0.1211</v>
+        <v>0.12119999999999999</v>
       </c>
       <c r="H13">
         <v>8.2500000000000004E-2</v>
@@ -1362,7 +1362,7 @@
         <v>44087</v>
       </c>
       <c r="B30">
-        <v>0.15629999999999999</v>
+        <v>0.15620000000000001</v>
       </c>
       <c r="C30">
         <v>0.22699999999999998</v>
@@ -1371,13 +1371,13 @@
         <v>0.16649999999999998</v>
       </c>
       <c r="E30">
-        <v>0.15109999999999998</v>
+        <v>0.15140000000000001</v>
       </c>
       <c r="F30">
-        <v>0.13419999999999999</v>
+        <v>0.1341</v>
       </c>
       <c r="G30">
-        <v>8.8399999999999992E-2</v>
+        <v>8.8300000000000003E-2</v>
       </c>
       <c r="H30">
         <v>4.0300000000000002E-2</v>
@@ -1458,19 +1458,19 @@
         <v>44108</v>
       </c>
       <c r="B33">
-        <v>0.17879999999999999</v>
+        <v>0.1789</v>
       </c>
       <c r="C33">
-        <v>0.2009</v>
+        <v>0.20079999999999998</v>
       </c>
       <c r="D33">
-        <v>0.16899999999999998</v>
+        <v>0.16889999999999999</v>
       </c>
       <c r="E33">
-        <v>0.14710000000000001</v>
+        <v>0.1474</v>
       </c>
       <c r="F33">
-        <v>0.14249999999999999</v>
+        <v>0.1424</v>
       </c>
       <c r="G33">
         <v>8.1799999999999998E-2</v>
@@ -1496,10 +1496,10 @@
         <v>0.18140000000000001</v>
       </c>
       <c r="D34">
-        <v>0.1716</v>
+        <v>0.17120000000000002</v>
       </c>
       <c r="E34">
-        <v>0.1363</v>
+        <v>0.1366</v>
       </c>
       <c r="F34">
         <v>0.1394</v>
@@ -1522,28 +1522,28 @@
         <v>44122</v>
       </c>
       <c r="B35">
-        <v>0.1852</v>
+        <v>0.18510000000000001</v>
       </c>
       <c r="C35">
         <v>0.17920000000000003</v>
       </c>
       <c r="D35">
-        <v>0.17910000000000001</v>
+        <v>0.17879999999999999</v>
       </c>
       <c r="E35">
-        <v>0.15060000000000001</v>
+        <v>0.15079999999999999</v>
       </c>
       <c r="F35">
-        <v>0.13059999999999999</v>
+        <v>0.1305</v>
       </c>
       <c r="G35">
-        <v>9.6699999999999994E-2</v>
+        <v>9.6999999999999989E-2</v>
       </c>
       <c r="H35">
-        <v>4.3700000000000003E-2</v>
+        <v>4.36E-2</v>
       </c>
       <c r="I35">
-        <v>3.49E-2</v>
+        <v>3.4799999999999998E-2</v>
       </c>
       <c r="J35">
         <v>1E-4</v>
@@ -1554,22 +1554,22 @@
         <v>44129</v>
       </c>
       <c r="B36">
-        <v>0.17600000000000002</v>
+        <v>0.1759</v>
       </c>
       <c r="C36">
-        <v>0.18679999999999999</v>
+        <v>0.1867</v>
       </c>
       <c r="D36">
-        <v>0.17960000000000001</v>
+        <v>0.17949999999999999</v>
       </c>
       <c r="E36">
-        <v>0.14949999999999999</v>
+        <v>0.14960000000000001</v>
       </c>
       <c r="F36">
-        <v>0.1389</v>
+        <v>0.13880000000000001</v>
       </c>
       <c r="G36">
-        <v>9.2200000000000004E-2</v>
+        <v>9.2300000000000007E-2</v>
       </c>
       <c r="H36">
         <v>4.7199999999999999E-2</v>
@@ -1586,22 +1586,22 @@
         <v>44136</v>
       </c>
       <c r="B37">
-        <v>0.16769999999999999</v>
+        <v>0.16750000000000001</v>
       </c>
       <c r="C37">
         <v>0.22320000000000001</v>
       </c>
       <c r="D37">
-        <v>0.1668</v>
+        <v>0.16690000000000002</v>
       </c>
       <c r="E37">
-        <v>0.1447</v>
+        <v>0.14460000000000001</v>
       </c>
       <c r="F37">
-        <v>0.13449999999999998</v>
+        <v>0.13439999999999999</v>
       </c>
       <c r="G37">
-        <v>8.8800000000000004E-2</v>
+        <v>8.9099999999999999E-2</v>
       </c>
       <c r="H37">
         <v>4.2199999999999994E-2</v>
@@ -1618,13 +1618,13 @@
         <v>44143</v>
       </c>
       <c r="B38">
-        <v>0.1686</v>
+        <v>0.16850000000000001</v>
       </c>
       <c r="C38">
         <v>0.2094</v>
       </c>
       <c r="D38">
-        <v>0.1711</v>
+        <v>0.17120000000000002</v>
       </c>
       <c r="E38">
         <v>0.14319999999999999</v>
@@ -1633,7 +1633,7 @@
         <v>0.1406</v>
       </c>
       <c r="G38">
-        <v>9.1300000000000006E-2</v>
+        <v>9.1400000000000009E-2</v>
       </c>
       <c r="H38">
         <v>4.2800000000000005E-2</v>
@@ -1650,16 +1650,16 @@
         <v>44150</v>
       </c>
       <c r="B39">
-        <v>0.16850000000000001</v>
+        <v>0.16839999999999999</v>
       </c>
       <c r="C39">
-        <v>0.20710000000000001</v>
+        <v>0.2069</v>
       </c>
       <c r="D39">
-        <v>0.16570000000000001</v>
+        <v>0.1656</v>
       </c>
       <c r="E39">
-        <v>0.13390000000000002</v>
+        <v>0.1341</v>
       </c>
       <c r="F39">
         <v>0.14230000000000001</v>
@@ -1668,10 +1668,10 @@
         <v>9.6500000000000002E-2</v>
       </c>
       <c r="H39">
-        <v>4.9299999999999997E-2</v>
+        <v>4.9200000000000001E-2</v>
       </c>
       <c r="I39">
-        <v>3.5000000000000003E-2</v>
+        <v>3.5200000000000002E-2</v>
       </c>
       <c r="J39">
         <v>1.7000000000000001E-3</v>
@@ -1682,22 +1682,22 @@
         <v>44157</v>
       </c>
       <c r="B40">
-        <v>0.15820000000000001</v>
+        <v>0.15810000000000002</v>
       </c>
       <c r="C40">
-        <v>0.19260000000000002</v>
+        <v>0.19210000000000002</v>
       </c>
       <c r="D40">
-        <v>0.16300000000000001</v>
+        <v>0.16329999999999997</v>
       </c>
       <c r="E40">
-        <v>0.14029999999999998</v>
+        <v>0.1406</v>
       </c>
       <c r="F40">
         <v>0.14899999999999999</v>
       </c>
       <c r="G40">
-        <v>9.9600000000000008E-2</v>
+        <v>9.9499999999999991E-2</v>
       </c>
       <c r="H40">
         <v>5.5599999999999997E-2</v>
@@ -1706,7 +1706,7 @@
         <v>4.1599999999999998E-2</v>
       </c>
       <c r="J40">
-        <v>1E-4</v>
+        <v>2.0000000000000001E-4</v>
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.3">
@@ -1714,28 +1714,28 @@
         <v>44164</v>
       </c>
       <c r="B41">
-        <v>0.16719999999999999</v>
+        <v>0.1666</v>
       </c>
       <c r="C41">
         <v>0.20319999999999999</v>
       </c>
       <c r="D41">
-        <v>0.16739999999999999</v>
+        <v>0.16769999999999999</v>
       </c>
       <c r="E41">
-        <v>0.14080000000000001</v>
+        <v>0.14069999999999999</v>
       </c>
       <c r="F41">
-        <v>0.1469</v>
+        <v>0.14710000000000001</v>
       </c>
       <c r="G41">
-        <v>9.5100000000000004E-2</v>
+        <v>9.5299999999999996E-2</v>
       </c>
       <c r="H41">
-        <v>4.5599999999999995E-2</v>
+        <v>4.5400000000000003E-2</v>
       </c>
       <c r="I41">
-        <v>3.3399999999999999E-2</v>
+        <v>3.3799999999999997E-2</v>
       </c>
       <c r="J41">
         <v>2.9999999999999997E-4</v>
@@ -1746,28 +1746,28 @@
         <v>44171</v>
       </c>
       <c r="B42">
-        <v>0.16920000000000002</v>
+        <v>0.1691</v>
       </c>
       <c r="C42">
-        <v>0.19210000000000002</v>
+        <v>0.19170000000000001</v>
       </c>
       <c r="D42">
-        <v>0.1593</v>
+        <v>0.159</v>
       </c>
       <c r="E42">
-        <v>0.13949999999999999</v>
+        <v>0.13830000000000001</v>
       </c>
       <c r="F42">
-        <v>0.14800000000000002</v>
+        <v>0.14810000000000001</v>
       </c>
       <c r="G42">
-        <v>0.10150000000000001</v>
+        <v>0.1024</v>
       </c>
       <c r="H42">
-        <v>5.04E-2</v>
+        <v>5.0700000000000002E-2</v>
       </c>
       <c r="I42">
-        <v>3.9900000000000005E-2</v>
+        <v>4.0599999999999997E-2</v>
       </c>
       <c r="J42">
         <v>1E-4</v>
@@ -1778,31 +1778,63 @@
         <v>44178</v>
       </c>
       <c r="B43">
-        <v>0.16739999999999999</v>
+        <v>0.16589999999999999</v>
       </c>
       <c r="C43">
-        <v>0.18100000000000002</v>
+        <v>0.18379999999999999</v>
       </c>
       <c r="D43">
-        <v>0.161</v>
+        <v>0.15810000000000002</v>
       </c>
       <c r="E43">
-        <v>0.13689999999999999</v>
+        <v>0.13849999999999998</v>
       </c>
       <c r="F43">
+        <v>0.1517</v>
+      </c>
+      <c r="G43">
+        <v>0.10369999999999999</v>
+      </c>
+      <c r="H43">
+        <v>5.4600000000000003E-2</v>
+      </c>
+      <c r="I43">
+        <v>4.3400000000000001E-2</v>
+      </c>
+      <c r="J43">
+        <v>2.0000000000000001E-4</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A44" s="1">
+        <v>44185</v>
+      </c>
+      <c r="B44">
+        <v>0.16760000000000003</v>
+      </c>
+      <c r="C44">
+        <v>0.17370000000000002</v>
+      </c>
+      <c r="D44">
+        <v>0.14929999999999999</v>
+      </c>
+      <c r="E44">
         <v>0.14180000000000001</v>
       </c>
-      <c r="G43">
-        <v>0.1038</v>
-      </c>
-      <c r="H43">
-        <v>6.0499999999999998E-2</v>
-      </c>
-      <c r="I43">
-        <v>4.7599999999999996E-2</v>
-      </c>
-      <c r="J43">
-        <v>0</v>
+      <c r="F44">
+        <v>0.15039999999999998</v>
+      </c>
+      <c r="G44">
+        <v>0.10859999999999999</v>
+      </c>
+      <c r="H44">
+        <v>5.8899999999999994E-2</v>
+      </c>
+      <c r="I44">
+        <v>4.9599999999999998E-2</v>
+      </c>
+      <c r="J44">
+        <v>2.0000000000000001E-4</v>
       </c>
     </row>
   </sheetData>

--- a/data/TestingPosByAge.xlsx
+++ b/data/TestingPosByAge.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\COVID-19 Data Visualization\COVID19 - Files\Power BI resources\CSV filesPROB4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76269A77-B7A6-4010-B2BD-77F32FB9213C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DC3D917-B02A-4D31-AA15-49EB9DBC64D4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{DBB38BDF-A13F-419E-9516-D831F5BF310A}"/>
   </bookViews>
@@ -416,10 +416,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0FDBA33-3CDD-4A6B-A0DB-E219F4323B76}">
-  <dimension ref="A1:J44"/>
+  <dimension ref="A1:J45"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L2" sqref="L2:U44"/>
+      <selection activeCell="M12" sqref="M12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1371,10 +1371,10 @@
         <v>0.16649999999999998</v>
       </c>
       <c r="E30">
-        <v>0.15140000000000001</v>
+        <v>0.15109999999999998</v>
       </c>
       <c r="F30">
-        <v>0.1341</v>
+        <v>0.13439999999999999</v>
       </c>
       <c r="G30">
         <v>8.8300000000000003E-2</v>
@@ -1429,16 +1429,16 @@
         <v>0.19640000000000002</v>
       </c>
       <c r="C32">
-        <v>0.21329999999999999</v>
+        <v>0.2132</v>
       </c>
       <c r="D32">
-        <v>0.1709</v>
+        <v>0.17100000000000001</v>
       </c>
       <c r="E32">
         <v>0.13970000000000002</v>
       </c>
       <c r="F32">
-        <v>0.12619999999999998</v>
+        <v>0.12609999999999999</v>
       </c>
       <c r="G32">
         <v>8.1900000000000001E-2</v>
@@ -1458,13 +1458,13 @@
         <v>44108</v>
       </c>
       <c r="B33">
-        <v>0.1789</v>
+        <v>0.1787</v>
       </c>
       <c r="C33">
         <v>0.20079999999999998</v>
       </c>
       <c r="D33">
-        <v>0.16889999999999999</v>
+        <v>0.1691</v>
       </c>
       <c r="E33">
         <v>0.1474</v>
@@ -1493,10 +1493,10 @@
         <v>0.19769999999999999</v>
       </c>
       <c r="C34">
-        <v>0.18140000000000001</v>
+        <v>0.18129999999999999</v>
       </c>
       <c r="D34">
-        <v>0.17120000000000002</v>
+        <v>0.1714</v>
       </c>
       <c r="E34">
         <v>0.1366</v>
@@ -1525,10 +1525,10 @@
         <v>0.18510000000000001</v>
       </c>
       <c r="C35">
-        <v>0.17920000000000003</v>
+        <v>0.17929999999999999</v>
       </c>
       <c r="D35">
-        <v>0.17879999999999999</v>
+        <v>0.17859999999999998</v>
       </c>
       <c r="E35">
         <v>0.15079999999999999</v>
@@ -1563,13 +1563,13 @@
         <v>0.17949999999999999</v>
       </c>
       <c r="E36">
-        <v>0.14960000000000001</v>
+        <v>0.14949999999999999</v>
       </c>
       <c r="F36">
-        <v>0.13880000000000001</v>
+        <v>0.13869999999999999</v>
       </c>
       <c r="G36">
-        <v>9.2300000000000007E-2</v>
+        <v>9.2499999999999999E-2</v>
       </c>
       <c r="H36">
         <v>4.7199999999999999E-2</v>
@@ -1630,7 +1630,7 @@
         <v>0.14319999999999999</v>
       </c>
       <c r="F38">
-        <v>0.1406</v>
+        <v>0.14050000000000001</v>
       </c>
       <c r="G38">
         <v>9.1400000000000009E-2</v>
@@ -1659,13 +1659,13 @@
         <v>0.1656</v>
       </c>
       <c r="E39">
-        <v>0.1341</v>
+        <v>0.13400000000000001</v>
       </c>
       <c r="F39">
-        <v>0.14230000000000001</v>
+        <v>0.1424</v>
       </c>
       <c r="G39">
-        <v>9.6500000000000002E-2</v>
+        <v>9.6600000000000005E-2</v>
       </c>
       <c r="H39">
         <v>4.9200000000000001E-2</v>
@@ -1682,25 +1682,25 @@
         <v>44157</v>
       </c>
       <c r="B40">
-        <v>0.15810000000000002</v>
+        <v>0.1578</v>
       </c>
       <c r="C40">
-        <v>0.19210000000000002</v>
+        <v>0.1923</v>
       </c>
       <c r="D40">
-        <v>0.16329999999999997</v>
+        <v>0.16320000000000001</v>
       </c>
       <c r="E40">
-        <v>0.1406</v>
+        <v>0.14069999999999999</v>
       </c>
       <c r="F40">
         <v>0.14899999999999999</v>
       </c>
       <c r="G40">
-        <v>9.9499999999999991E-2</v>
+        <v>9.9600000000000008E-2</v>
       </c>
       <c r="H40">
-        <v>5.5599999999999997E-2</v>
+        <v>5.57E-2</v>
       </c>
       <c r="I40">
         <v>4.1599999999999998E-2</v>
@@ -1714,22 +1714,22 @@
         <v>44164</v>
       </c>
       <c r="B41">
-        <v>0.1666</v>
+        <v>0.16649999999999998</v>
       </c>
       <c r="C41">
         <v>0.20319999999999999</v>
       </c>
       <c r="D41">
-        <v>0.16769999999999999</v>
+        <v>0.16760000000000003</v>
       </c>
       <c r="E41">
         <v>0.14069999999999999</v>
       </c>
       <c r="F41">
-        <v>0.14710000000000001</v>
+        <v>0.1472</v>
       </c>
       <c r="G41">
-        <v>9.5299999999999996E-2</v>
+        <v>9.5399999999999985E-2</v>
       </c>
       <c r="H41">
         <v>4.5400000000000003E-2</v>
@@ -1746,10 +1746,10 @@
         <v>44171</v>
       </c>
       <c r="B42">
-        <v>0.1691</v>
+        <v>0.16889999999999999</v>
       </c>
       <c r="C42">
-        <v>0.19170000000000001</v>
+        <v>0.19159999999999999</v>
       </c>
       <c r="D42">
         <v>0.159</v>
@@ -1758,16 +1758,16 @@
         <v>0.13830000000000001</v>
       </c>
       <c r="F42">
-        <v>0.14810000000000001</v>
+        <v>0.14829999999999999</v>
       </c>
       <c r="G42">
         <v>0.1024</v>
       </c>
       <c r="H42">
-        <v>5.0700000000000002E-2</v>
+        <v>5.0799999999999998E-2</v>
       </c>
       <c r="I42">
-        <v>4.0599999999999997E-2</v>
+        <v>4.07E-2</v>
       </c>
       <c r="J42">
         <v>1E-4</v>
@@ -1778,31 +1778,31 @@
         <v>44178</v>
       </c>
       <c r="B43">
-        <v>0.16589999999999999</v>
+        <v>0.1648</v>
       </c>
       <c r="C43">
-        <v>0.18379999999999999</v>
+        <v>0.18329999999999999</v>
       </c>
       <c r="D43">
-        <v>0.15810000000000002</v>
+        <v>0.15789999999999998</v>
       </c>
       <c r="E43">
-        <v>0.13849999999999998</v>
+        <v>0.1386</v>
       </c>
       <c r="F43">
-        <v>0.1517</v>
+        <v>0.1522</v>
       </c>
       <c r="G43">
-        <v>0.10369999999999999</v>
+        <v>0.1048</v>
       </c>
       <c r="H43">
-        <v>5.4600000000000003E-2</v>
+        <v>5.4299999999999994E-2</v>
       </c>
       <c r="I43">
-        <v>4.3400000000000001E-2</v>
+        <v>4.3299999999999998E-2</v>
       </c>
       <c r="J43">
-        <v>2.0000000000000001E-4</v>
+        <v>8.0000000000000004E-4</v>
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.3">
@@ -1810,31 +1810,63 @@
         <v>44185</v>
       </c>
       <c r="B44">
-        <v>0.16760000000000003</v>
+        <v>0.16250000000000001</v>
       </c>
       <c r="C44">
-        <v>0.17370000000000002</v>
+        <v>0.1709</v>
       </c>
       <c r="D44">
-        <v>0.14929999999999999</v>
+        <v>0.15049999999999999</v>
       </c>
       <c r="E44">
-        <v>0.14180000000000001</v>
+        <v>0.13739999999999999</v>
       </c>
       <c r="F44">
-        <v>0.15039999999999998</v>
+        <v>0.1545</v>
       </c>
       <c r="G44">
-        <v>0.10859999999999999</v>
+        <v>0.114</v>
       </c>
       <c r="H44">
-        <v>5.8899999999999994E-2</v>
+        <v>5.9699999999999996E-2</v>
       </c>
       <c r="I44">
-        <v>4.9599999999999998E-2</v>
+        <v>5.0199999999999995E-2</v>
       </c>
       <c r="J44">
-        <v>2.0000000000000001E-4</v>
+        <v>2.9999999999999997E-4</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A45" s="1">
+        <v>44192</v>
+      </c>
+      <c r="B45">
+        <v>0.16800000000000001</v>
+      </c>
+      <c r="C45">
+        <v>0.17530000000000001</v>
+      </c>
+      <c r="D45">
+        <v>0.16200000000000001</v>
+      </c>
+      <c r="E45">
+        <v>0.14369999999999999</v>
+      </c>
+      <c r="F45">
+        <v>0.15</v>
+      </c>
+      <c r="G45">
+        <v>0.1012</v>
+      </c>
+      <c r="H45">
+        <v>5.7300000000000004E-2</v>
+      </c>
+      <c r="I45">
+        <v>4.1900000000000007E-2</v>
+      </c>
+      <c r="J45">
+        <v>5.9999999999999995E-4</v>
       </c>
     </row>
   </sheetData>
